--- a/web/elec/fixtures/points-de-recharge-ok.xlsx
+++ b/web/elec/fixtures/points-de-recharge-ok.xlsx
@@ -33,7 +33,7 @@
     <t>Date d'installation (ou 01/01/2022 si antérieur)</t>
   </si>
   <si>
-    <t>Numéro LNE du certificat d'examen du type</t>
+    <t>Numéro MID du certificat d'examen du type</t>
   </si>
   <si>
     <t>Date du relevé</t>
